--- a/REGULAR/1-RETIRED/ATIENZA MARVIN.xlsx
+++ b/REGULAR/1-RETIRED/ATIENZA MARVIN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\1-RETIRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BED6AD-E878-42AD-BA87-ADE6FD83BB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8E7B7D-AE28-44CC-81B3-5614E138D1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1466,10 +1466,10 @@
   </sheetPr>
   <dimension ref="A2:K218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3708" topLeftCell="A197"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3708" topLeftCell="A197" activePane="bottomLeft"/>
+      <selection activeCell="F9" activeCellId="1" sqref="B3:C3 F9:F48"/>
+      <selection pane="bottomLeft" activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
